--- a/Processes/TestCaces/Vanya/Log/Log_1.xlsx
+++ b/Processes/TestCaces/Vanya/Log/Log_1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <x:si>
     <x:t>Наименование процесса</x:t>
   </x:si>
@@ -239,6 +239,12 @@
   </x:si>
   <x:si>
     <x:t>360015381900045220 22.02.2024 04:54:14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28.02.2024 10:02:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28.02.2024 10:02:20</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1863,6 +1869,58 @@
         <x:v>70</x:v>
       </x:c>
     </x:row>
+    <x:row r="49" spans="1:8">
+      <x:c r="A49" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:8">
+      <x:c r="A50" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
